--- a/src/test/resources/testdata/VOLDP3.xlsx
+++ b/src/test/resources/testdata/VOLDP3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB312BD-FB5B-448F-84E0-796272C9D2BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901B1072-8CFC-42D6-973E-BB9B9A6E8C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="37">
   <si>
     <t>FirstName</t>
   </si>
@@ -82,9 +82,6 @@
     <t>1163 Oak Bluff Dr</t>
   </si>
   <si>
-    <t>07302023</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>9 to 12 Months</t>
+  </si>
+  <si>
+    <t>11012023</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,87 +544,487 @@
         <v>33837</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2022</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5">
+        <v>33837</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5">
+        <v>33837</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="6">
-        <v>2022</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="N7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5">
+        <v>33837</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="3" t="s">
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5">
+        <v>33837</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/VOLDP3.xlsx
+++ b/src/test/resources/testdata/VOLDP3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901B1072-8CFC-42D6-973E-BB9B9A6E8C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD388D9-E9F1-48BC-98EC-87286B9A3238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -118,16 +118,13 @@
     <t>7542569685</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Owner Occupied</t>
   </si>
   <si>
     <t>9 to 12 Months</t>
   </si>
   <si>
-    <t>11012023</t>
+    <t>04112023</t>
   </si>
   <si>
     <t>2023</t>
@@ -472,7 +469,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +541,7 @@
         <v>33837</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -553,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>22</v>
@@ -562,13 +559,13 @@
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>24</v>
@@ -594,7 +591,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -603,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>31</v>
@@ -612,19 +609,19 @@
         <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -644,7 +641,7 @@
         <v>33837</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
@@ -653,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>22</v>
@@ -662,13 +659,13 @@
         <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>24</v>
@@ -694,7 +691,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
@@ -703,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>31</v>
@@ -712,19 +709,19 @@
         <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -744,7 +741,7 @@
         <v>33837</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
@@ -753,7 +750,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>22</v>
@@ -762,13 +759,13 @@
         <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>24</v>
@@ -794,7 +791,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
@@ -803,7 +800,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>31</v>
@@ -812,19 +809,19 @@
         <v>23</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -844,7 +841,7 @@
         <v>33837</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
@@ -853,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>22</v>
@@ -862,13 +859,13 @@
         <v>23</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>24</v>
@@ -894,7 +891,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
@@ -903,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>31</v>
@@ -912,19 +909,19 @@
         <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -944,7 +941,7 @@
         <v>33837</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
@@ -953,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>22</v>
@@ -962,13 +959,13 @@
         <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>24</v>
@@ -994,7 +991,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
@@ -1003,7 +1000,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>31</v>
@@ -1012,19 +1009,19 @@
         <v>23</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/VOLDP3.xlsx
+++ b/src/test/resources/testdata/VOLDP3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD388D9-E9F1-48BC-98EC-87286B9A3238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D55FF80-27D0-4D6B-923A-10A1F08824BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -124,10 +124,10 @@
     <t>9 to 12 Months</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>04112023</t>
-  </si>
-  <si>
-    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
         <v>33837</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>22</v>
@@ -565,7 +565,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>24</v>
@@ -591,7 +591,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -600,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>31</v>
@@ -615,7 +615,7 @@
         <v>33</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>24</v>
@@ -641,7 +641,7 @@
         <v>33837</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
@@ -650,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>22</v>
@@ -665,7 +665,7 @@
         <v>33</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>24</v>
@@ -691,7 +691,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
@@ -700,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>31</v>
@@ -715,312 +715,12 @@
         <v>33</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5">
-        <v>33837</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5">
-        <v>33837</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5">
-        <v>33837</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/test/resources/testdata/VOLDP3.xlsx
+++ b/src/test/resources/testdata/VOLDP3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D55FF80-27D0-4D6B-923A-10A1F08824BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7AA616-F35B-49FD-9A11-041C00C71AE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>FirstName</t>
   </si>
@@ -124,10 +124,16 @@
     <t>9 to 12 Months</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>04112023</t>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>01182024</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>AG1730A1</t>
   </si>
 </sst>
 </file>
@@ -466,15 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +533,11 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -565,7 +578,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>24</v>
@@ -573,8 +586,11 @@
       <c r="P2" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="Q2" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -615,7 +631,7 @@
         <v>33</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>24</v>
@@ -623,8 +639,11 @@
       <c r="P3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -665,7 +684,7 @@
         <v>33</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>24</v>
@@ -673,8 +692,11 @@
       <c r="P4" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="Q4" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -715,13 +737,16 @@
         <v>33</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
